--- a/Sycamore Gate Choosing.xlsx
+++ b/Sycamore Gate Choosing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csm\OneDrive - Colorado School of Mines\Desktop\quantum programming\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csm\Documents\LQG_Project\csci-581-lqg-main\csci-581-lqg-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D328576B-00C6-455C-A8A7-862B3F42A8BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA694F1E-7950-4D9B-B728-DE8EEFB12FEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13260" yWindow="675" windowWidth="18165" windowHeight="14895" activeTab="1" xr2:uid="{F2BCBF30-ED21-4AB9-9E08-592FA9BDC003}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22080" windowHeight="13176" activeTab="1" xr2:uid="{F2BCBF30-ED21-4AB9-9E08-592FA9BDC003}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="56">
   <si>
     <t>5,0</t>
   </si>
@@ -209,7 +209,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,8 +301,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,8 +328,56 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -400,11 +461,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -489,6 +563,76 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3521,9 +3665,9 @@
       <selection activeCell="B3" sqref="B3:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2</v>
       </c>
@@ -3531,7 +3675,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>3</v>
       </c>
@@ -3539,7 +3683,7 @@
         <v>-0.75</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>4</v>
       </c>
@@ -3547,7 +3691,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>5</v>
       </c>
@@ -3555,7 +3699,7 @@
         <v>-1.25</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>6</v>
       </c>
@@ -3563,7 +3707,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>7</v>
       </c>
@@ -3571,7 +3715,7 @@
         <v>-1.75</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>8</v>
       </c>
@@ -3579,7 +3723,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>9</v>
       </c>
@@ -3587,7 +3731,7 @@
         <v>-2.25</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>10</v>
       </c>
@@ -3595,7 +3739,7 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>11</v>
       </c>
@@ -3603,7 +3747,7 @@
         <v>-2.75</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>12</v>
       </c>
@@ -3619,27 +3763,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C3179F-D9A1-4D37-AE18-60B7359E031A}">
-  <dimension ref="A11:AD52"/>
+  <dimension ref="A11:AD139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="C110" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="Q117" sqref="Q117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="1:20" ht="33.75" customHeight="1">
+    <row r="11" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26"/>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
       <c r="E11" s="26"/>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="30" t="s">
         <v>43</v>
       </c>
       <c r="H11" s="26"/>
@@ -3660,7 +3805,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:20" ht="33.75" customHeight="1">
+    <row r="12" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
@@ -3668,10 +3813,10 @@
       <c r="E12" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="30" t="s">
         <v>40</v>
       </c>
       <c r="H12" s="27" t="s">
@@ -3698,26 +3843,26 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:20" ht="33.75" customHeight="1">
+    <row r="13" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
       <c r="D13" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="30" t="s">
         <v>34</v>
       </c>
       <c r="G13" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="27" t="s">
+      <c r="H13" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="27" t="s">
+      <c r="I13" s="30" t="s">
         <v>37</v>
       </c>
       <c r="J13" s="26"/>
@@ -3744,7 +3889,7 @@
       </c>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:20" ht="33.75" customHeight="1">
+    <row r="14" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="27" t="s">
@@ -3753,19 +3898,19 @@
       <c r="D14" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="30" t="s">
         <v>28</v>
       </c>
       <c r="G14" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="27" t="s">
+      <c r="H14" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="27" t="s">
+      <c r="I14" s="30" t="s">
         <v>31</v>
       </c>
       <c r="J14" s="27" t="s">
@@ -3798,7 +3943,7 @@
         <v>8.7000000000000001E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="33.75" customHeight="1">
+    <row r="15" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
       <c r="B15" s="27" t="s">
         <v>1</v>
@@ -3809,10 +3954,10 @@
       <c r="D15" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="30" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="27" t="s">
@@ -3856,7 +4001,7 @@
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="33.75" customHeight="1">
+    <row r="16" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
         <v>0</v>
       </c>
@@ -3869,10 +4014,10 @@
       <c r="D16" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="30" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="27" t="s">
@@ -3914,7 +4059,7 @@
       </c>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="1:30" ht="33.75" customHeight="1">
+    <row r="17" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
       <c r="B17" s="27" t="s">
         <v>3</v>
@@ -3964,7 +4109,7 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="1:30" ht="33.75" customHeight="1">
+    <row r="18" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
       <c r="B18" s="26"/>
       <c r="C18" s="27" t="s">
@@ -4006,7 +4151,7 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:30" ht="33.75" customHeight="1">
+    <row r="19" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
@@ -4040,7 +4185,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:30" ht="33.75" customHeight="1">
+    <row r="20" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
@@ -4066,7 +4211,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="1:30" ht="33.75" customHeight="1">
+    <row r="21" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4088,21 +4233,21 @@
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
     </row>
-    <row r="22" spans="1:30" ht="33.75" customHeight="1">
+    <row r="22" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="14"/>
-      <c r="E22" s="15">
+      <c r="E22" s="40">
         <v>3</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="39">
         <v>4</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="39">
         <v>5</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="39">
         <v>18</v>
       </c>
       <c r="I22" s="2"/>
@@ -4121,28 +4266,24 @@
         <v>15</v>
       </c>
       <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-    </row>
-    <row r="23" spans="1:30" ht="33.75" customHeight="1">
+    </row>
+    <row r="23" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="40">
         <v>2</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="40">
         <v>9</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="40">
         <v>8</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="39">
         <v>19</v>
       </c>
       <c r="I23" s="9"/>
@@ -4161,28 +4302,24 @@
         <v>14</v>
       </c>
       <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-    </row>
-    <row r="24" spans="1:30" ht="33.75" customHeight="1">
+    </row>
+    <row r="24" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="15">
+      <c r="D24" s="41">
         <v>12</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="41">
         <v>13</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="40">
         <v>6</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="40">
         <v>7</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="39">
         <v>0</v>
       </c>
       <c r="I24" s="9"/>
@@ -4201,24 +4338,20 @@
         <v>1</v>
       </c>
       <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-    </row>
-    <row r="25" spans="1:30" ht="33.75" customHeight="1">
+    </row>
+    <row r="25" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="15">
+      <c r="D25" s="41">
         <v>11</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="41">
         <v>10</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
-      <c r="H25" s="15">
+      <c r="H25" s="39">
         <v>1</v>
       </c>
       <c r="I25" s="9"/>
@@ -4235,26 +4368,22 @@
       </c>
       <c r="O25" s="18"/>
       <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-    </row>
-    <row r="26" spans="1:30" ht="33.75" customHeight="1">
+    </row>
+    <row r="26" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="15"/>
-      <c r="E26" s="15">
+      <c r="E26" s="41">
         <v>17</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26" s="41">
         <v>16</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="41">
         <v>15</v>
       </c>
-      <c r="H26" s="15">
+      <c r="H26" s="41">
         <v>14</v>
       </c>
       <c r="I26" s="9"/>
@@ -4271,12 +4400,8 @@
       </c>
       <c r="O26" s="18"/>
       <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-    </row>
-    <row r="27" spans="1:30" ht="33.75" customHeight="1">
+    </row>
+    <row r="27" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -4299,12 +4424,8 @@
       </c>
       <c r="O27" s="18"/>
       <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-    </row>
-    <row r="28" spans="1:30" ht="33.75" customHeight="1">
+    </row>
+    <row r="28" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="9"/>
@@ -4321,12 +4442,8 @@
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-    </row>
-    <row r="29" spans="1:30" ht="33.75" customHeight="1">
+    </row>
+    <row r="29" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -4397,7 +4514,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:30" ht="33.75" customHeight="1">
+    <row r="30" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -4468,7 +4585,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:30" ht="33.75" customHeight="1">
+    <row r="31" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -4479,7 +4596,7 @@
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
     </row>
-    <row r="32" spans="1:30" ht="33.75" customHeight="1">
+    <row r="32" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="20"/>
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
@@ -4508,7 +4625,7 @@
       <c r="AC32" s="26"/>
       <c r="AD32" s="26"/>
     </row>
-    <row r="33" spans="1:30" ht="33.75" customHeight="1">
+    <row r="33" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
@@ -4549,7 +4666,7 @@
       <c r="AC33" s="26"/>
       <c r="AD33" s="26"/>
     </row>
-    <row r="34" spans="1:30" ht="33.75" customHeight="1">
+    <row r="34" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="20"/>
       <c r="B34" s="20"/>
       <c r="C34" s="20"/>
@@ -4615,7 +4732,7 @@
       </c>
       <c r="AD34" s="26"/>
     </row>
-    <row r="35" spans="1:30" ht="33.75" customHeight="1">
+    <row r="35" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20"/>
       <c r="B35" s="20"/>
       <c r="C35" s="23">
@@ -4693,7 +4810,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:30" ht="33.75" customHeight="1">
+    <row r="36" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20"/>
       <c r="B36" s="23"/>
       <c r="C36" s="23">
@@ -4773,7 +4890,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:30" ht="33.75" customHeight="1">
+    <row r="37" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="22"/>
       <c r="B37" s="23"/>
       <c r="C37" s="23">
@@ -4847,7 +4964,7 @@
       </c>
       <c r="AD37" s="26"/>
     </row>
-    <row r="38" spans="1:30" ht="33.75" customHeight="1">
+    <row r="38" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="20"/>
       <c r="B38" s="23"/>
       <c r="C38" s="23">
@@ -4915,7 +5032,7 @@
       <c r="AC38" s="26"/>
       <c r="AD38" s="26"/>
     </row>
-    <row r="39" spans="1:30" ht="33.75" customHeight="1">
+    <row r="39" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="20"/>
       <c r="B39" s="20"/>
       <c r="C39" s="23"/>
@@ -4975,7 +5092,7 @@
       <c r="AC39" s="26"/>
       <c r="AD39" s="26"/>
     </row>
-    <row r="40" spans="1:30" ht="33.75" customHeight="1">
+    <row r="40" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="20"/>
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
@@ -5019,7 +5136,7 @@
       <c r="AC40" s="26"/>
       <c r="AD40" s="26"/>
     </row>
-    <row r="41" spans="1:30" ht="33.75" customHeight="1">
+    <row r="41" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="20"/>
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
@@ -5043,7 +5160,7 @@
       <c r="AC41" s="26"/>
       <c r="AD41" s="26"/>
     </row>
-    <row r="42" spans="1:30" ht="33.75" customHeight="1">
+    <row r="42" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -5055,7 +5172,7 @@
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
     </row>
-    <row r="43" spans="1:30" ht="33.75" customHeight="1">
+    <row r="43" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -5126,7 +5243,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:30" ht="33.75" customHeight="1">
+    <row r="44" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -5197,7 +5314,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:30" ht="33.75" customHeight="1">
+    <row r="45" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -5268,7 +5385,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:30" ht="33.75" customHeight="1">
+    <row r="46" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -5339,7 +5456,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:30" ht="33.75" customHeight="1">
+    <row r="47" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -5362,7 +5479,7 @@
       <c r="T47" s="10"/>
       <c r="U47" s="12"/>
     </row>
-    <row r="48" spans="1:30">
+    <row r="48" spans="1:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -5370,112 +5487,2166 @@
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="12"/>
-      <c r="O48" s="12"/>
-      <c r="P48" s="12"/>
-      <c r="Q48" s="12"/>
-      <c r="R48" s="12"/>
+      <c r="H48" s="35">
+        <v>0</v>
+      </c>
+      <c r="I48" s="35">
+        <v>1</v>
+      </c>
+      <c r="J48" s="35">
+        <v>2</v>
+      </c>
+      <c r="K48" s="35">
+        <v>3</v>
+      </c>
+      <c r="L48" s="35">
+        <v>4</v>
+      </c>
+      <c r="M48" s="35">
+        <v>5</v>
+      </c>
+      <c r="N48" s="35">
+        <v>6</v>
+      </c>
+      <c r="O48" s="35">
+        <v>7</v>
+      </c>
+      <c r="P48" s="35">
+        <v>8</v>
+      </c>
+      <c r="Q48" s="35">
+        <v>9</v>
+      </c>
+      <c r="R48" s="36"/>
       <c r="S48" s="12"/>
       <c r="T48" s="12"/>
       <c r="U48" s="12"/>
     </row>
-    <row r="49" spans="1:21">
+    <row r="49" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
+      <c r="C49" s="10">
+        <v>1</v>
+      </c>
+      <c r="D49" s="10">
+        <v>9</v>
+      </c>
+      <c r="E49" s="10">
+        <v>3</v>
+      </c>
+      <c r="F49" s="10">
+        <v>11</v>
+      </c>
       <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="12"/>
-      <c r="O49" s="12"/>
-      <c r="P49" s="12"/>
-      <c r="Q49" s="12"/>
-      <c r="R49" s="12"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="34"/>
+      <c r="N49" s="34"/>
+      <c r="O49" s="20"/>
+      <c r="P49" s="20"/>
+      <c r="R49" s="35">
+        <v>0</v>
+      </c>
       <c r="S49" s="12"/>
       <c r="T49" s="12"/>
       <c r="U49" s="12"/>
     </row>
-    <row r="50" spans="1:21">
+    <row r="50" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
+      <c r="C50" s="10">
+        <v>0</v>
+      </c>
+      <c r="D50" s="10">
+        <v>8</v>
+      </c>
+      <c r="E50" s="10">
+        <v>2</v>
+      </c>
+      <c r="F50" s="10">
+        <v>10</v>
+      </c>
       <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="12"/>
-      <c r="P50" s="12"/>
-      <c r="Q50" s="12"/>
-      <c r="R50" s="12"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21">
+        <v>16</v>
+      </c>
+      <c r="N50" s="21">
+        <v>17</v>
+      </c>
+      <c r="O50" s="21">
+        <v>0</v>
+      </c>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="20"/>
+      <c r="R50" s="35">
+        <v>1</v>
+      </c>
       <c r="S50" s="12"/>
       <c r="T50" s="12"/>
       <c r="U50" s="12"/>
     </row>
-    <row r="51" spans="1:21">
+    <row r="51" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
+      <c r="C51" s="10">
+        <v>17</v>
+      </c>
+      <c r="D51" s="10">
+        <v>5</v>
+      </c>
+      <c r="E51" s="10">
+        <v>19</v>
+      </c>
+      <c r="F51" s="10">
+        <v>7</v>
+      </c>
       <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
-      <c r="O51" s="12"/>
-      <c r="P51" s="12"/>
-      <c r="Q51" s="12"/>
-      <c r="R51" s="12"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="L51" s="21">
+        <v>12</v>
+      </c>
+      <c r="M51" s="21">
+        <v>13</v>
+      </c>
+      <c r="N51" s="22"/>
+      <c r="O51" s="21">
+        <v>1</v>
+      </c>
+      <c r="P51" s="21"/>
+      <c r="Q51" s="20"/>
+      <c r="R51" s="35">
+        <v>2</v>
+      </c>
       <c r="S51" s="12"/>
       <c r="T51" s="12"/>
       <c r="U51" s="12"/>
     </row>
-    <row r="52" spans="1:21">
+    <row r="52" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
+      <c r="C52" s="10">
+        <v>16</v>
+      </c>
+      <c r="D52" s="32">
+        <v>4</v>
+      </c>
+      <c r="E52" s="10">
+        <v>18</v>
+      </c>
+      <c r="F52" s="10">
+        <v>6</v>
+      </c>
       <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="12"/>
-      <c r="P52" s="12"/>
-      <c r="Q52" s="12"/>
-      <c r="R52" s="12"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="23"/>
+      <c r="L52" s="21">
+        <v>9</v>
+      </c>
+      <c r="M52" s="21">
+        <v>8</v>
+      </c>
+      <c r="N52" s="21">
+        <v>5</v>
+      </c>
+      <c r="O52" s="21">
+        <v>4</v>
+      </c>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="35">
+        <v>3</v>
+      </c>
       <c r="S52" s="12"/>
       <c r="T52" s="12"/>
       <c r="U52" s="12"/>
+    </row>
+    <row r="53" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="C53" s="10">
+        <v>13</v>
+      </c>
+      <c r="D53" s="31">
+        <v>1</v>
+      </c>
+      <c r="E53" s="10">
+        <v>15</v>
+      </c>
+      <c r="F53" s="32">
+        <v>3</v>
+      </c>
+      <c r="H53" s="20"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23"/>
+      <c r="K53" s="23"/>
+      <c r="L53" s="23"/>
+      <c r="M53" s="23">
+        <v>18</v>
+      </c>
+      <c r="N53" s="23">
+        <v>19</v>
+      </c>
+      <c r="O53" s="23">
+        <v>2</v>
+      </c>
+      <c r="P53" s="21"/>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="C54" s="10">
+        <v>12</v>
+      </c>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10">
+        <v>14</v>
+      </c>
+      <c r="F54" s="10"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="23">
+        <v>14</v>
+      </c>
+      <c r="M54" s="23">
+        <v>15</v>
+      </c>
+      <c r="N54" s="23"/>
+      <c r="O54" s="23">
+        <v>3</v>
+      </c>
+      <c r="P54" s="22"/>
+      <c r="Q54" s="20"/>
+      <c r="R54" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
+      <c r="K55" s="23"/>
+      <c r="L55" s="23">
+        <v>11</v>
+      </c>
+      <c r="M55" s="23">
+        <v>10</v>
+      </c>
+      <c r="N55" s="23">
+        <v>7</v>
+      </c>
+      <c r="O55" s="23">
+        <v>6</v>
+      </c>
+      <c r="P55" s="20"/>
+      <c r="Q55" s="20"/>
+      <c r="R55" s="35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="23"/>
+      <c r="K56" s="23"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="23"/>
+      <c r="N56" s="23"/>
+      <c r="O56" s="20"/>
+      <c r="P56" s="20"/>
+      <c r="Q56" s="20"/>
+      <c r="R56" s="35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="23"/>
+      <c r="N57" s="20"/>
+      <c r="O57" s="20"/>
+      <c r="P57" s="20"/>
+      <c r="Q57" s="24"/>
+      <c r="R57" s="35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="22"/>
+      <c r="M58" s="20"/>
+      <c r="N58" s="20"/>
+      <c r="O58" s="20"/>
+      <c r="P58" s="20"/>
+      <c r="Q58" s="24"/>
+      <c r="R58" s="35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R59" s="12"/>
+    </row>
+    <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H61" s="38">
+        <v>0</v>
+      </c>
+      <c r="I61" s="38">
+        <v>1</v>
+      </c>
+      <c r="J61" s="38">
+        <v>2</v>
+      </c>
+      <c r="K61" s="38">
+        <v>3</v>
+      </c>
+      <c r="L61" s="38">
+        <v>4</v>
+      </c>
+      <c r="M61" s="38">
+        <v>5</v>
+      </c>
+      <c r="N61" s="38">
+        <v>6</v>
+      </c>
+      <c r="O61" s="38">
+        <v>7</v>
+      </c>
+      <c r="P61" s="38">
+        <v>8</v>
+      </c>
+      <c r="Q61" s="38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H62" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I62" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J62" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K62" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L62" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M62" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="N62" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O62" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="P62" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q62" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H63" s="38">
+        <v>10</v>
+      </c>
+      <c r="I63" s="38">
+        <v>11</v>
+      </c>
+      <c r="J63" s="38">
+        <v>12</v>
+      </c>
+      <c r="K63" s="38">
+        <v>13</v>
+      </c>
+      <c r="L63" s="38">
+        <v>14</v>
+      </c>
+      <c r="M63" s="38">
+        <v>15</v>
+      </c>
+      <c r="N63" s="38">
+        <v>16</v>
+      </c>
+      <c r="O63" s="38">
+        <v>17</v>
+      </c>
+      <c r="P63" s="38">
+        <v>18</v>
+      </c>
+      <c r="Q63" s="38">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H64" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I64" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J64" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="K64" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L64" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M64" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="N64" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="O64" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="P64" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q64" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="3:21" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="35">
+        <v>0</v>
+      </c>
+      <c r="I68" s="35">
+        <v>1</v>
+      </c>
+      <c r="J68" s="35">
+        <v>2</v>
+      </c>
+      <c r="K68" s="35">
+        <v>3</v>
+      </c>
+      <c r="L68" s="35">
+        <v>4</v>
+      </c>
+      <c r="M68" s="35">
+        <v>5</v>
+      </c>
+      <c r="N68" s="35">
+        <v>6</v>
+      </c>
+      <c r="O68" s="35">
+        <v>7</v>
+      </c>
+      <c r="P68" s="35">
+        <v>8</v>
+      </c>
+      <c r="Q68" s="35">
+        <v>9</v>
+      </c>
+      <c r="R68" s="36"/>
+      <c r="T68" s="47">
+        <v>13</v>
+      </c>
+      <c r="U68" s="48">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="3:21" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="C69" s="10">
+        <v>1</v>
+      </c>
+      <c r="D69" s="10">
+        <v>9</v>
+      </c>
+      <c r="E69" s="10">
+        <v>19</v>
+      </c>
+      <c r="F69" s="10">
+        <v>7</v>
+      </c>
+      <c r="G69" s="12"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="20"/>
+      <c r="K69" s="20"/>
+      <c r="L69" s="20"/>
+      <c r="M69" s="21"/>
+      <c r="N69" s="21"/>
+      <c r="O69" s="20"/>
+      <c r="P69" s="20"/>
+      <c r="R69" s="35">
+        <v>0</v>
+      </c>
+      <c r="T69" s="47">
+        <v>17</v>
+      </c>
+      <c r="U69" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="3:21" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="C70" s="10">
+        <v>0</v>
+      </c>
+      <c r="D70" s="10">
+        <v>8</v>
+      </c>
+      <c r="E70" s="10">
+        <v>18</v>
+      </c>
+      <c r="F70" s="10">
+        <v>6</v>
+      </c>
+      <c r="G70" s="12"/>
+      <c r="H70" s="42"/>
+      <c r="I70" s="42"/>
+      <c r="J70" s="42"/>
+      <c r="K70" s="42"/>
+      <c r="L70" s="45">
+        <v>8</v>
+      </c>
+      <c r="M70" s="45">
+        <v>9</v>
+      </c>
+      <c r="N70" s="44">
+        <v>17</v>
+      </c>
+      <c r="O70" s="44">
+        <v>0</v>
+      </c>
+      <c r="P70" s="42"/>
+      <c r="Q70" s="20"/>
+      <c r="R70" s="35">
+        <v>1</v>
+      </c>
+      <c r="T70" s="47">
+        <v>12</v>
+      </c>
+      <c r="U70" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="3:21" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="C71" s="10">
+        <v>17</v>
+      </c>
+      <c r="D71" s="10">
+        <v>5</v>
+      </c>
+      <c r="E71" s="10">
+        <v>15</v>
+      </c>
+      <c r="F71" s="10"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="42"/>
+      <c r="I71" s="42"/>
+      <c r="J71" s="42"/>
+      <c r="K71" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="L71" s="45">
+        <v>5</v>
+      </c>
+      <c r="M71" s="45">
+        <v>2</v>
+      </c>
+      <c r="N71" s="44">
+        <v>16</v>
+      </c>
+      <c r="O71" s="44">
+        <v>1</v>
+      </c>
+      <c r="P71" s="43"/>
+      <c r="Q71" s="20"/>
+      <c r="R71" s="35">
+        <v>2</v>
+      </c>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+    </row>
+    <row r="72" spans="3:21" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="C72" s="10">
+        <v>16</v>
+      </c>
+      <c r="D72" s="10">
+        <v>4</v>
+      </c>
+      <c r="E72" s="10">
+        <v>14</v>
+      </c>
+      <c r="G72" s="12"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="43"/>
+      <c r="K72" s="43"/>
+      <c r="L72" s="45">
+        <v>4</v>
+      </c>
+      <c r="M72" s="45">
+        <v>3</v>
+      </c>
+      <c r="N72" s="44">
+        <v>13</v>
+      </c>
+      <c r="O72" s="44">
+        <v>12</v>
+      </c>
+      <c r="P72" s="43"/>
+      <c r="Q72" s="33"/>
+      <c r="R72" s="35">
+        <v>3</v>
+      </c>
+      <c r="T72" s="49">
+        <v>3</v>
+      </c>
+      <c r="U72" s="50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="3:21" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="C73" s="10">
+        <v>13</v>
+      </c>
+      <c r="D73" s="10">
+        <v>3</v>
+      </c>
+      <c r="E73" s="10">
+        <v>11</v>
+      </c>
+      <c r="H73" s="42"/>
+      <c r="I73" s="43"/>
+      <c r="J73" s="43"/>
+      <c r="K73" s="43"/>
+      <c r="L73" s="46">
+        <v>19</v>
+      </c>
+      <c r="M73" s="46">
+        <v>18</v>
+      </c>
+      <c r="N73" s="46">
+        <v>15</v>
+      </c>
+      <c r="O73" s="46">
+        <v>14</v>
+      </c>
+      <c r="P73" s="43"/>
+      <c r="Q73" s="33"/>
+      <c r="R73" s="35">
+        <v>4</v>
+      </c>
+      <c r="T73" s="49">
+        <v>5</v>
+      </c>
+      <c r="U73" s="50">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="3:21" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="C74" s="10">
+        <v>12</v>
+      </c>
+      <c r="D74" s="10">
+        <v>2</v>
+      </c>
+      <c r="E74" s="10">
+        <v>10</v>
+      </c>
+      <c r="F74" s="10"/>
+      <c r="H74" s="43"/>
+      <c r="I74" s="43"/>
+      <c r="J74" s="43"/>
+      <c r="K74" s="43"/>
+      <c r="L74" s="46">
+        <v>6</v>
+      </c>
+      <c r="M74" s="46">
+        <v>7</v>
+      </c>
+      <c r="N74" s="46">
+        <v>10</v>
+      </c>
+      <c r="O74" s="46">
+        <v>11</v>
+      </c>
+      <c r="P74" s="43"/>
+      <c r="Q74" s="20"/>
+      <c r="R74" s="35">
+        <v>5</v>
+      </c>
+      <c r="T74" s="49">
+        <v>2</v>
+      </c>
+      <c r="U74" s="50">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="3:21" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="H75" s="42"/>
+      <c r="I75" s="43"/>
+      <c r="J75" s="43"/>
+      <c r="K75" s="43"/>
+      <c r="L75" s="43"/>
+      <c r="M75" s="43"/>
+      <c r="N75" s="43"/>
+      <c r="O75" s="43"/>
+      <c r="P75" s="42"/>
+      <c r="Q75" s="20"/>
+      <c r="R75" s="35">
+        <v>6</v>
+      </c>
+      <c r="T75" s="1"/>
+      <c r="U75" s="1"/>
+    </row>
+    <row r="76" spans="3:21" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="H76" s="42"/>
+      <c r="I76" s="42"/>
+      <c r="J76" s="43"/>
+      <c r="K76" s="43"/>
+      <c r="L76" s="43"/>
+      <c r="M76" s="43"/>
+      <c r="N76" s="43"/>
+      <c r="O76" s="42"/>
+      <c r="P76" s="42"/>
+      <c r="Q76" s="20"/>
+      <c r="R76" s="35">
+        <v>7</v>
+      </c>
+      <c r="T76" s="51">
+        <v>7</v>
+      </c>
+      <c r="U76" s="52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="3:21" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="H77" s="42"/>
+      <c r="I77" s="42"/>
+      <c r="J77" s="42"/>
+      <c r="K77" s="43"/>
+      <c r="L77" s="43"/>
+      <c r="M77" s="43"/>
+      <c r="N77" s="42"/>
+      <c r="O77" s="42"/>
+      <c r="P77" s="42"/>
+      <c r="Q77" s="24"/>
+      <c r="R77" s="35">
+        <v>8</v>
+      </c>
+      <c r="T77" s="51">
+        <v>11</v>
+      </c>
+      <c r="U77" s="52">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="3:21" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="H78" s="42"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="42"/>
+      <c r="K78" s="42"/>
+      <c r="L78" s="43"/>
+      <c r="M78" s="42"/>
+      <c r="N78" s="42"/>
+      <c r="O78" s="42"/>
+      <c r="P78" s="42"/>
+      <c r="Q78" s="24"/>
+      <c r="R78" s="35">
+        <v>9</v>
+      </c>
+      <c r="T78" s="51">
+        <v>15</v>
+      </c>
+      <c r="U78" s="52">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="R79" s="12"/>
+      <c r="T79" s="51">
+        <v>19</v>
+      </c>
+      <c r="U79" s="52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H81" s="38">
+        <v>0</v>
+      </c>
+      <c r="I81" s="38">
+        <v>1</v>
+      </c>
+      <c r="J81" s="38">
+        <v>2</v>
+      </c>
+      <c r="K81" s="38">
+        <v>3</v>
+      </c>
+      <c r="L81" s="38">
+        <v>4</v>
+      </c>
+      <c r="M81" s="38">
+        <v>5</v>
+      </c>
+      <c r="N81" s="38">
+        <v>6</v>
+      </c>
+      <c r="O81" s="38">
+        <v>7</v>
+      </c>
+      <c r="P81" s="38">
+        <v>8</v>
+      </c>
+      <c r="Q81" s="38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D82" s="37"/>
+      <c r="E82" s="37"/>
+      <c r="F82" s="37"/>
+      <c r="G82" s="37"/>
+      <c r="H82" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I82" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J82" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="K82" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L82" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="M82" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="N82" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="O82" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="P82" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q82" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="R82" s="37"/>
+    </row>
+    <row r="83" spans="3:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H83" s="38">
+        <v>10</v>
+      </c>
+      <c r="I83" s="38">
+        <v>11</v>
+      </c>
+      <c r="J83" s="38">
+        <v>12</v>
+      </c>
+      <c r="K83" s="38">
+        <v>13</v>
+      </c>
+      <c r="L83" s="38">
+        <v>14</v>
+      </c>
+      <c r="M83" s="38">
+        <v>15</v>
+      </c>
+      <c r="N83" s="38">
+        <v>16</v>
+      </c>
+      <c r="O83" s="38">
+        <v>17</v>
+      </c>
+      <c r="P83" s="38">
+        <v>18</v>
+      </c>
+      <c r="Q83" s="38">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I84" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J84" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="K84" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L84" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M84" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="N84" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="O84" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="P84" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q84" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="R84" s="37"/>
+    </row>
+    <row r="88" spans="3:21" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="35">
+        <v>0</v>
+      </c>
+      <c r="I88" s="35">
+        <v>1</v>
+      </c>
+      <c r="J88" s="35">
+        <v>2</v>
+      </c>
+      <c r="K88" s="35">
+        <v>3</v>
+      </c>
+      <c r="L88" s="35">
+        <v>4</v>
+      </c>
+      <c r="M88" s="35">
+        <v>5</v>
+      </c>
+      <c r="N88" s="35">
+        <v>6</v>
+      </c>
+      <c r="O88" s="35">
+        <v>7</v>
+      </c>
+      <c r="P88" s="35">
+        <v>8</v>
+      </c>
+      <c r="Q88" s="35">
+        <v>9</v>
+      </c>
+      <c r="R88" s="36"/>
+      <c r="T88" s="47">
+        <v>13</v>
+      </c>
+      <c r="U88" s="48">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="C89" s="10">
+        <v>1</v>
+      </c>
+      <c r="D89" s="10">
+        <v>9</v>
+      </c>
+      <c r="E89" s="10">
+        <v>19</v>
+      </c>
+      <c r="F89" s="10">
+        <v>7</v>
+      </c>
+      <c r="G89" s="12"/>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="20"/>
+      <c r="K89" s="20"/>
+      <c r="L89" s="20"/>
+      <c r="M89" s="34"/>
+      <c r="N89" s="34"/>
+      <c r="O89" s="20"/>
+      <c r="P89" s="20"/>
+      <c r="R89" s="35">
+        <v>0</v>
+      </c>
+      <c r="T89" s="47">
+        <v>17</v>
+      </c>
+      <c r="U89" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="C90" s="10">
+        <v>0</v>
+      </c>
+      <c r="D90" s="10">
+        <v>8</v>
+      </c>
+      <c r="E90" s="10">
+        <v>18</v>
+      </c>
+      <c r="F90" s="10">
+        <v>6</v>
+      </c>
+      <c r="G90" s="12"/>
+      <c r="H90" s="42"/>
+      <c r="I90" s="42"/>
+      <c r="J90" s="42"/>
+      <c r="K90" s="42"/>
+      <c r="L90" s="45">
+        <v>8</v>
+      </c>
+      <c r="M90" s="45">
+        <v>9</v>
+      </c>
+      <c r="N90" s="44">
+        <v>17</v>
+      </c>
+      <c r="O90" s="44">
+        <v>0</v>
+      </c>
+      <c r="P90" s="42"/>
+      <c r="Q90" s="20"/>
+      <c r="R90" s="35">
+        <v>1</v>
+      </c>
+      <c r="T90" s="47">
+        <v>12</v>
+      </c>
+      <c r="U90" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="3:21" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="C91" s="10">
+        <v>17</v>
+      </c>
+      <c r="D91" s="10">
+        <v>5</v>
+      </c>
+      <c r="E91" s="10">
+        <v>15</v>
+      </c>
+      <c r="F91" s="10"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="42"/>
+      <c r="I91" s="42"/>
+      <c r="J91" s="42"/>
+      <c r="K91" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="L91" s="45">
+        <v>5</v>
+      </c>
+      <c r="M91" s="45">
+        <v>2</v>
+      </c>
+      <c r="N91" s="44">
+        <v>16</v>
+      </c>
+      <c r="O91" s="44">
+        <v>1</v>
+      </c>
+      <c r="P91" s="43"/>
+      <c r="Q91" s="20"/>
+      <c r="R91" s="35">
+        <v>2</v>
+      </c>
+      <c r="T91" s="1"/>
+      <c r="U91" s="1"/>
+    </row>
+    <row r="92" spans="3:21" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="C92" s="10">
+        <v>16</v>
+      </c>
+      <c r="D92" s="10">
+        <v>4</v>
+      </c>
+      <c r="E92" s="10">
+        <v>14</v>
+      </c>
+      <c r="G92" s="12"/>
+      <c r="H92" s="42"/>
+      <c r="I92" s="42"/>
+      <c r="J92" s="43"/>
+      <c r="K92" s="43"/>
+      <c r="L92" s="45">
+        <v>4</v>
+      </c>
+      <c r="M92" s="45">
+        <v>3</v>
+      </c>
+      <c r="N92" s="44">
+        <v>13</v>
+      </c>
+      <c r="O92" s="44">
+        <v>12</v>
+      </c>
+      <c r="P92" s="43"/>
+      <c r="Q92" s="33"/>
+      <c r="R92" s="35">
+        <v>3</v>
+      </c>
+      <c r="T92" s="49">
+        <v>3</v>
+      </c>
+      <c r="U92" s="50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="C93" s="10">
+        <v>13</v>
+      </c>
+      <c r="D93" s="10">
+        <v>3</v>
+      </c>
+      <c r="E93" s="10">
+        <v>11</v>
+      </c>
+      <c r="H93" s="42"/>
+      <c r="I93" s="43"/>
+      <c r="J93" s="43"/>
+      <c r="K93" s="43"/>
+      <c r="L93" s="46">
+        <v>19</v>
+      </c>
+      <c r="M93" s="46">
+        <v>18</v>
+      </c>
+      <c r="N93" s="46">
+        <v>15</v>
+      </c>
+      <c r="O93" s="46">
+        <v>14</v>
+      </c>
+      <c r="P93" s="43"/>
+      <c r="Q93" s="33"/>
+      <c r="R93" s="35">
+        <v>4</v>
+      </c>
+      <c r="T93" s="49">
+        <v>5</v>
+      </c>
+      <c r="U93" s="50">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="C94" s="10">
+        <v>12</v>
+      </c>
+      <c r="D94" s="10">
+        <v>2</v>
+      </c>
+      <c r="E94" s="10">
+        <v>10</v>
+      </c>
+      <c r="F94" s="10"/>
+      <c r="H94" s="43"/>
+      <c r="I94" s="43"/>
+      <c r="J94" s="43"/>
+      <c r="K94" s="43"/>
+      <c r="L94" s="46">
+        <v>6</v>
+      </c>
+      <c r="M94" s="46">
+        <v>7</v>
+      </c>
+      <c r="N94" s="46">
+        <v>10</v>
+      </c>
+      <c r="O94" s="46">
+        <v>11</v>
+      </c>
+      <c r="P94" s="43"/>
+      <c r="Q94" s="20"/>
+      <c r="R94" s="35">
+        <v>5</v>
+      </c>
+      <c r="T94" s="49">
+        <v>2</v>
+      </c>
+      <c r="U94" s="50">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
+      <c r="H95" s="42"/>
+      <c r="I95" s="43"/>
+      <c r="J95" s="43"/>
+      <c r="K95" s="43"/>
+      <c r="L95" s="43"/>
+      <c r="M95" s="43"/>
+      <c r="N95" s="43"/>
+      <c r="O95" s="43"/>
+      <c r="P95" s="42"/>
+      <c r="Q95" s="20"/>
+      <c r="R95" s="35">
+        <v>6</v>
+      </c>
+      <c r="T95" s="1"/>
+      <c r="U95" s="1"/>
+    </row>
+    <row r="96" spans="3:21" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="H96" s="42"/>
+      <c r="I96" s="42"/>
+      <c r="J96" s="43"/>
+      <c r="K96" s="43"/>
+      <c r="L96" s="43"/>
+      <c r="M96" s="43"/>
+      <c r="N96" s="43"/>
+      <c r="O96" s="42"/>
+      <c r="P96" s="42"/>
+      <c r="Q96" s="20"/>
+      <c r="R96" s="35">
+        <v>7</v>
+      </c>
+      <c r="T96" s="51">
+        <v>7</v>
+      </c>
+      <c r="U96" s="52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="4:21" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="H97" s="42"/>
+      <c r="I97" s="42"/>
+      <c r="J97" s="42"/>
+      <c r="K97" s="43"/>
+      <c r="L97" s="43"/>
+      <c r="M97" s="43"/>
+      <c r="N97" s="42"/>
+      <c r="O97" s="42"/>
+      <c r="P97" s="42"/>
+      <c r="Q97" s="24"/>
+      <c r="R97" s="35">
+        <v>8</v>
+      </c>
+      <c r="T97" s="51">
+        <v>11</v>
+      </c>
+      <c r="U97" s="52">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="4:21" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="H98" s="42"/>
+      <c r="I98" s="42"/>
+      <c r="J98" s="42"/>
+      <c r="K98" s="42"/>
+      <c r="L98" s="43"/>
+      <c r="M98" s="42"/>
+      <c r="N98" s="42"/>
+      <c r="O98" s="42"/>
+      <c r="P98" s="42"/>
+      <c r="Q98" s="24"/>
+      <c r="R98" s="35">
+        <v>9</v>
+      </c>
+      <c r="T98" s="51">
+        <v>15</v>
+      </c>
+      <c r="U98" s="52">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="R99" s="12"/>
+      <c r="T99" s="51">
+        <v>19</v>
+      </c>
+      <c r="U99" s="52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H101" s="38">
+        <v>0</v>
+      </c>
+      <c r="I101" s="38">
+        <v>1</v>
+      </c>
+      <c r="J101" s="38">
+        <v>2</v>
+      </c>
+      <c r="K101" s="38">
+        <v>3</v>
+      </c>
+      <c r="L101" s="38">
+        <v>4</v>
+      </c>
+      <c r="M101" s="38">
+        <v>5</v>
+      </c>
+      <c r="N101" s="38">
+        <v>6</v>
+      </c>
+      <c r="O101" s="38">
+        <v>7</v>
+      </c>
+      <c r="P101" s="38">
+        <v>8</v>
+      </c>
+      <c r="Q101" s="38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D102" s="37"/>
+      <c r="E102" s="37"/>
+      <c r="F102" s="37"/>
+      <c r="G102" s="37"/>
+      <c r="H102" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I102" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J102" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="K102" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L102" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="M102" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="N102" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="O102" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="P102" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q102" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="R102" s="37"/>
+    </row>
+    <row r="103" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H103" s="38">
+        <v>10</v>
+      </c>
+      <c r="I103" s="38">
+        <v>11</v>
+      </c>
+      <c r="J103" s="38">
+        <v>12</v>
+      </c>
+      <c r="K103" s="38">
+        <v>13</v>
+      </c>
+      <c r="L103" s="38">
+        <v>14</v>
+      </c>
+      <c r="M103" s="38">
+        <v>15</v>
+      </c>
+      <c r="N103" s="38">
+        <v>16</v>
+      </c>
+      <c r="O103" s="38">
+        <v>17</v>
+      </c>
+      <c r="P103" s="38">
+        <v>18</v>
+      </c>
+      <c r="Q103" s="38">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D104" s="37"/>
+      <c r="E104" s="37"/>
+      <c r="F104" s="37"/>
+      <c r="G104" s="37"/>
+      <c r="H104" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I104" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J104" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="K104" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L104" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M104" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="N104" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="O104" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="P104" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q104" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="R104" s="37"/>
+    </row>
+    <row r="106" spans="4:21" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="H106" s="35">
+        <v>0</v>
+      </c>
+      <c r="I106" s="35">
+        <v>1</v>
+      </c>
+      <c r="J106" s="35">
+        <v>2</v>
+      </c>
+      <c r="K106" s="35">
+        <v>3</v>
+      </c>
+      <c r="L106" s="35">
+        <v>4</v>
+      </c>
+      <c r="M106" s="35">
+        <v>5</v>
+      </c>
+      <c r="N106" s="35">
+        <v>6</v>
+      </c>
+      <c r="O106" s="35">
+        <v>7</v>
+      </c>
+      <c r="P106" s="35">
+        <v>8</v>
+      </c>
+      <c r="Q106" s="35">
+        <v>9</v>
+      </c>
+      <c r="R106" s="36"/>
+    </row>
+    <row r="107" spans="4:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M107" s="36"/>
+      <c r="N107" s="36"/>
+      <c r="R107" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="4:21" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="H108" s="42"/>
+      <c r="I108" s="42"/>
+      <c r="J108" s="42"/>
+      <c r="K108" s="42"/>
+      <c r="L108" s="53"/>
+      <c r="M108" s="53"/>
+      <c r="N108" s="53"/>
+      <c r="O108" s="53"/>
+      <c r="P108" s="42"/>
+      <c r="Q108" s="20"/>
+      <c r="R108" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="4:21" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="H109" s="42"/>
+      <c r="I109" s="42"/>
+      <c r="J109" s="42"/>
+      <c r="K109" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="L109" s="45">
+        <v>8</v>
+      </c>
+      <c r="M109" s="45">
+        <v>5</v>
+      </c>
+      <c r="N109" s="45">
+        <v>4</v>
+      </c>
+      <c r="O109" s="46">
+        <v>19</v>
+      </c>
+      <c r="P109" s="46">
+        <v>6</v>
+      </c>
+      <c r="Q109" s="20"/>
+      <c r="R109" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="4:21" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="H110" s="42"/>
+      <c r="I110" s="42"/>
+      <c r="J110" s="43"/>
+      <c r="K110" s="43"/>
+      <c r="L110" s="45">
+        <v>9</v>
+      </c>
+      <c r="M110" s="45">
+        <v>2</v>
+      </c>
+      <c r="N110" s="45">
+        <v>3</v>
+      </c>
+      <c r="O110" s="46">
+        <v>18</v>
+      </c>
+      <c r="P110" s="46">
+        <v>7</v>
+      </c>
+      <c r="Q110" s="21"/>
+      <c r="R110" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="4:21" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="H111" s="42"/>
+      <c r="I111" s="43"/>
+      <c r="J111" s="43"/>
+      <c r="K111" s="43"/>
+      <c r="L111" s="44">
+        <v>17</v>
+      </c>
+      <c r="M111" s="44">
+        <v>16</v>
+      </c>
+      <c r="N111" s="44">
+        <v>13</v>
+      </c>
+      <c r="O111" s="46">
+        <v>15</v>
+      </c>
+      <c r="P111" s="46">
+        <v>10</v>
+      </c>
+      <c r="Q111" s="21"/>
+      <c r="R111" s="35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="4:21" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="H112" s="43"/>
+      <c r="I112" s="43"/>
+      <c r="J112" s="43"/>
+      <c r="K112" s="43"/>
+      <c r="L112" s="44">
+        <v>0</v>
+      </c>
+      <c r="M112" s="44">
+        <v>1</v>
+      </c>
+      <c r="N112" s="44">
+        <v>12</v>
+      </c>
+      <c r="O112" s="46">
+        <v>14</v>
+      </c>
+      <c r="P112" s="46">
+        <v>11</v>
+      </c>
+      <c r="Q112" s="20"/>
+      <c r="R112" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="8:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="H113" s="42"/>
+      <c r="I113" s="43"/>
+      <c r="J113" s="43"/>
+      <c r="K113" s="43"/>
+      <c r="L113" s="53"/>
+      <c r="M113" s="53"/>
+      <c r="N113" s="53"/>
+      <c r="O113" s="53"/>
+      <c r="P113" s="42"/>
+      <c r="Q113" s="20"/>
+      <c r="R113" s="35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="8:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="H114" s="42"/>
+      <c r="I114" s="42"/>
+      <c r="J114" s="43"/>
+      <c r="K114" s="43"/>
+      <c r="L114" s="43"/>
+      <c r="M114" s="43"/>
+      <c r="N114" s="43"/>
+      <c r="O114" s="42"/>
+      <c r="P114" s="42"/>
+      <c r="Q114" s="20"/>
+      <c r="R114" s="35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="8:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="H115" s="42"/>
+      <c r="I115" s="42"/>
+      <c r="J115" s="42"/>
+      <c r="K115" s="43"/>
+      <c r="L115" s="43"/>
+      <c r="M115" s="43"/>
+      <c r="N115" s="42"/>
+      <c r="O115" s="42"/>
+      <c r="P115" s="42"/>
+      <c r="Q115" s="24"/>
+      <c r="R115" s="35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="8:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="H116" s="42"/>
+      <c r="I116" s="42"/>
+      <c r="J116" s="42"/>
+      <c r="K116" s="42"/>
+      <c r="L116" s="43"/>
+      <c r="M116" s="42"/>
+      <c r="N116" s="42"/>
+      <c r="O116" s="42"/>
+      <c r="P116" s="42"/>
+      <c r="Q116" s="24"/>
+      <c r="R116" s="35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="8:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H118" s="38">
+        <v>0</v>
+      </c>
+      <c r="I118" s="38">
+        <v>1</v>
+      </c>
+      <c r="J118" s="38">
+        <v>2</v>
+      </c>
+      <c r="K118" s="38">
+        <v>3</v>
+      </c>
+      <c r="L118" s="38">
+        <v>4</v>
+      </c>
+      <c r="M118" s="38">
+        <v>5</v>
+      </c>
+      <c r="N118" s="38">
+        <v>6</v>
+      </c>
+      <c r="O118" s="38">
+        <v>7</v>
+      </c>
+      <c r="P118" s="38">
+        <v>8</v>
+      </c>
+      <c r="Q118" s="38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="8:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H119" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I119" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J119" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K119" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L119" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M119" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N119" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="O119" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="P119" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q119" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="120" spans="8:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H120" s="38">
+        <v>10</v>
+      </c>
+      <c r="I120" s="38">
+        <v>11</v>
+      </c>
+      <c r="J120" s="38">
+        <v>12</v>
+      </c>
+      <c r="K120" s="38">
+        <v>13</v>
+      </c>
+      <c r="L120" s="38">
+        <v>14</v>
+      </c>
+      <c r="M120" s="38">
+        <v>15</v>
+      </c>
+      <c r="N120" s="38">
+        <v>16</v>
+      </c>
+      <c r="O120" s="38">
+        <v>17</v>
+      </c>
+      <c r="P120" s="38">
+        <v>18</v>
+      </c>
+      <c r="Q120" s="38">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" spans="8:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H121" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I121" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J121" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K121" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="L121" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M121" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="N121" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="O121" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="P121" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q121" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="123" spans="8:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="H123" s="35">
+        <v>0</v>
+      </c>
+      <c r="I123" s="35">
+        <v>1</v>
+      </c>
+      <c r="J123" s="35">
+        <v>2</v>
+      </c>
+      <c r="K123" s="35">
+        <v>3</v>
+      </c>
+      <c r="L123" s="35">
+        <v>4</v>
+      </c>
+      <c r="M123" s="35">
+        <v>5</v>
+      </c>
+      <c r="N123" s="35">
+        <v>6</v>
+      </c>
+      <c r="O123" s="35">
+        <v>7</v>
+      </c>
+      <c r="P123" s="35">
+        <v>8</v>
+      </c>
+      <c r="Q123" s="35">
+        <v>9</v>
+      </c>
+      <c r="R123" s="36"/>
+    </row>
+    <row r="124" spans="8:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="H124" s="20"/>
+      <c r="I124" s="20"/>
+      <c r="J124" s="20"/>
+      <c r="K124" s="20"/>
+      <c r="L124" s="20"/>
+      <c r="M124" s="34"/>
+      <c r="N124" s="34"/>
+      <c r="O124" s="20"/>
+      <c r="P124" s="20"/>
+      <c r="R124" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="8:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="H125" s="20"/>
+      <c r="I125" s="20"/>
+      <c r="J125" s="20"/>
+      <c r="K125" s="20"/>
+      <c r="L125" s="21"/>
+      <c r="M125" s="21"/>
+      <c r="N125" s="21"/>
+      <c r="O125" s="21"/>
+      <c r="P125" s="20"/>
+      <c r="Q125" s="20"/>
+      <c r="R125" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="8:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="H126" s="20"/>
+      <c r="I126" s="20"/>
+      <c r="J126" s="20"/>
+      <c r="K126" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="L126" s="21">
+        <v>12</v>
+      </c>
+      <c r="M126" s="21">
+        <v>9</v>
+      </c>
+      <c r="N126" s="23"/>
+      <c r="O126" s="23">
+        <v>14</v>
+      </c>
+      <c r="P126" s="23">
+        <v>11</v>
+      </c>
+      <c r="Q126" s="20"/>
+      <c r="R126" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="8:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="H127" s="20"/>
+      <c r="I127" s="20"/>
+      <c r="J127" s="23"/>
+      <c r="K127" s="21">
+        <v>16</v>
+      </c>
+      <c r="L127" s="21">
+        <v>13</v>
+      </c>
+      <c r="M127" s="21">
+        <v>8</v>
+      </c>
+      <c r="N127" s="23">
+        <v>18</v>
+      </c>
+      <c r="O127" s="23">
+        <v>15</v>
+      </c>
+      <c r="P127" s="23">
+        <v>10</v>
+      </c>
+      <c r="Q127" s="33"/>
+      <c r="R127" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="8:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="H128" s="20"/>
+      <c r="I128" s="23"/>
+      <c r="J128" s="23"/>
+      <c r="K128" s="21">
+        <v>17</v>
+      </c>
+      <c r="L128" s="22"/>
+      <c r="M128" s="21">
+        <v>5</v>
+      </c>
+      <c r="N128" s="23">
+        <v>19</v>
+      </c>
+      <c r="O128" s="23"/>
+      <c r="P128" s="23">
+        <v>7</v>
+      </c>
+      <c r="Q128" s="33"/>
+      <c r="R128" s="35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="8:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="H129" s="22"/>
+      <c r="I129" s="23"/>
+      <c r="J129" s="23"/>
+      <c r="K129" s="21">
+        <v>0</v>
+      </c>
+      <c r="L129" s="21">
+        <v>1</v>
+      </c>
+      <c r="M129" s="21">
+        <v>4</v>
+      </c>
+      <c r="N129" s="23">
+        <v>2</v>
+      </c>
+      <c r="O129" s="23">
+        <v>3</v>
+      </c>
+      <c r="P129" s="23">
+        <v>6</v>
+      </c>
+      <c r="Q129" s="20"/>
+      <c r="R129" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="8:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="H130" s="20"/>
+      <c r="I130" s="23"/>
+      <c r="J130" s="23"/>
+      <c r="K130" s="23"/>
+      <c r="L130" s="23"/>
+      <c r="M130" s="23"/>
+      <c r="N130" s="23"/>
+      <c r="O130" s="23"/>
+      <c r="P130" s="20"/>
+      <c r="Q130" s="20"/>
+      <c r="R130" s="35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="8:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="H131" s="20"/>
+      <c r="I131" s="20"/>
+      <c r="J131" s="23"/>
+      <c r="K131" s="23"/>
+      <c r="L131" s="22"/>
+      <c r="M131" s="23"/>
+      <c r="N131" s="23"/>
+      <c r="O131" s="20"/>
+      <c r="P131" s="20"/>
+      <c r="Q131" s="20"/>
+      <c r="R131" s="35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="8:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="H132" s="20"/>
+      <c r="I132" s="20"/>
+      <c r="J132" s="20"/>
+      <c r="K132" s="23"/>
+      <c r="L132" s="23"/>
+      <c r="M132" s="23"/>
+      <c r="N132" s="20"/>
+      <c r="O132" s="20"/>
+      <c r="P132" s="20"/>
+      <c r="Q132" s="24"/>
+      <c r="R132" s="35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="8:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="H133" s="20"/>
+      <c r="I133" s="20"/>
+      <c r="J133" s="20"/>
+      <c r="K133" s="20"/>
+      <c r="L133" s="22"/>
+      <c r="M133" s="20"/>
+      <c r="N133" s="20"/>
+      <c r="O133" s="20"/>
+      <c r="P133" s="20"/>
+      <c r="Q133" s="24"/>
+      <c r="R133" s="35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="R134" s="12"/>
+    </row>
+    <row r="136" spans="8:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H136" s="38">
+        <v>0</v>
+      </c>
+      <c r="I136" s="38">
+        <v>1</v>
+      </c>
+      <c r="J136" s="38">
+        <v>2</v>
+      </c>
+      <c r="K136" s="38">
+        <v>3</v>
+      </c>
+      <c r="L136" s="38">
+        <v>4</v>
+      </c>
+      <c r="M136" s="38">
+        <v>5</v>
+      </c>
+      <c r="N136" s="38">
+        <v>6</v>
+      </c>
+      <c r="O136" s="38">
+        <v>7</v>
+      </c>
+      <c r="P136" s="38">
+        <v>8</v>
+      </c>
+      <c r="Q136" s="38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="8:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H137" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I137" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J137" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K137" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L137" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="M137" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="N137" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="O137" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="P137" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q137" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="138" spans="8:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H138" s="38">
+        <v>10</v>
+      </c>
+      <c r="I138" s="38">
+        <v>11</v>
+      </c>
+      <c r="J138" s="38">
+        <v>12</v>
+      </c>
+      <c r="K138" s="38">
+        <v>13</v>
+      </c>
+      <c r="L138" s="38">
+        <v>14</v>
+      </c>
+      <c r="M138" s="38">
+        <v>15</v>
+      </c>
+      <c r="N138" s="38">
+        <v>16</v>
+      </c>
+      <c r="O138" s="38">
+        <v>17</v>
+      </c>
+      <c r="P138" s="38">
+        <v>18</v>
+      </c>
+      <c r="Q138" s="38">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="139" spans="8:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H139" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I139" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J139" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="K139" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L139" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="M139" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="N139" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O139" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="P139" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q139" s="16" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
